--- a/Dataset/Open_Source_Dataset/Table_3.2.1.2.xlsx
+++ b/Dataset/Open_Source_Dataset/Table_3.2.1.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>H2</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>D2</t>
-  </si>
-  <si>
-    <t>T1</t>
   </si>
   <si>
     <t>T2</t>
@@ -394,7 +391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -417,24 +416,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -455,24 +442,12 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -493,24 +468,12 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -531,24 +494,12 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -569,24 +520,12 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -607,24 +546,12 @@
       <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -645,24 +572,12 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -683,24 +598,12 @@
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -721,24 +624,12 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -759,24 +650,12 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -797,24 +676,12 @@
       <c r="F11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -835,24 +702,12 @@
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -871,26 +726,14 @@
         <v>3.81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -909,26 +752,14 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -947,26 +778,14 @@
         <v>49.6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -985,26 +804,14 @@
         <v>46.1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1023,26 +830,14 @@
         <v>91.29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1061,26 +856,14 @@
         <v>28.06</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1099,26 +882,14 @@
         <v>3.23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1137,26 +908,14 @@
         <v>3.38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1175,26 +934,14 @@
         <v>3.37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
